--- a/普通团购测试用例郑佩茹.xlsx
+++ b/普通团购测试用例郑佩茹.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\海商测试\APP2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DN\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
   <si>
     <t>模块1</t>
   </si>
@@ -731,6 +731,10 @@
   </si>
   <si>
     <t>下订单、不付款、1小时内订单自动取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,6 +1021,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,15 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,7 +1359,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,8 +1450,10 @@
     </row>
     <row r="5" spans="1:7" s="27" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -1463,7 +1469,7 @@
     <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="25" t="s">
         <v>155</v>
       </c>
@@ -1475,10 +1481,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="8"/>
@@ -1493,8 +1499,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
         <v>146</v>
@@ -1507,8 +1513,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10" t="s">
         <v>29</v>
@@ -1521,8 +1527,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>11</v>
@@ -1535,8 +1541,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>12</v>
@@ -1549,8 +1555,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
         <v>13</v>
@@ -1563,8 +1569,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>101</v>
@@ -1577,8 +1583,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
         <v>17</v>
@@ -1591,8 +1597,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
         <v>140</v>
@@ -1605,8 +1611,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
         <v>20</v>
@@ -1619,8 +1625,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="8"/>
       <c r="D17" s="11" t="s">
         <v>131</v>
@@ -1633,13 +1639,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -1653,9 +1659,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="12" t="s">
         <v>45</v>
       </c>
@@ -1667,8 +1673,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="14" t="s">
         <v>52</v>
       </c>
@@ -1683,9 +1689,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="33" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1699,9 +1705,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
@@ -1713,9 +1719,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="12" t="s">
         <v>34</v>
       </c>
@@ -1727,9 +1733,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
@@ -1741,9 +1747,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
@@ -1755,9 +1761,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
@@ -1769,7 +1775,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14" t="s">
         <v>111</v>
@@ -1785,9 +1791,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -1801,9 +1807,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="15" t="s">
         <v>102</v>
       </c>
@@ -1815,9 +1821,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="15" t="s">
         <v>107</v>
       </c>
@@ -1829,11 +1835,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="42" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="16" t="s">
         <v>70</v>
       </c>
@@ -1845,9 +1851,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="18" t="s">
         <v>112</v>
       </c>
@@ -1859,9 +1865,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="17" t="s">
         <v>63</v>
       </c>
@@ -1873,9 +1879,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="17" t="s">
         <v>66</v>
       </c>
@@ -1887,9 +1893,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="17" t="s">
         <v>68</v>
       </c>
@@ -1901,11 +1907,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="19" t="s">
         <v>83</v>
       </c>
@@ -1917,9 +1923,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="20" t="s">
         <v>75</v>
       </c>
@@ -1931,9 +1937,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="20" t="s">
         <v>77</v>
       </c>
@@ -1945,9 +1951,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="20" t="s">
         <v>78</v>
       </c>
@@ -1959,9 +1965,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="20" t="s">
         <v>79</v>
       </c>
@@ -1973,9 +1979,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="20" t="s">
         <v>80</v>
       </c>
@@ -1987,9 +1993,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="23" t="s">
@@ -2003,9 +2009,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="37"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="22"/>
-      <c r="C43" s="31"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="23" t="s">
         <v>124</v>
       </c>
@@ -2017,9 +2023,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="37"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="32"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="22" t="s">
         <v>91</v>
       </c>
@@ -2031,9 +2037,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="37"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="22"/>
-      <c r="C45" s="32"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="22" t="s">
         <v>93</v>
       </c>
@@ -2045,11 +2051,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="37"/>
-      <c r="B46" s="33" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="12" t="s">
         <v>66</v>
       </c>
@@ -2061,9 +2067,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="37"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="12" t="s">
         <v>88</v>
       </c>
@@ -2098,7 +2104,7 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="31" t="s">
         <v>132</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2110,7 +2116,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="47"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2120,68 +2126,61 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="47"/>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="47"/>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="47"/>
-      <c r="B60" s="46" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
-      <c r="B61" s="46" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="47"/>
-      <c r="B62" s="46" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B46:C47"/>
@@ -2194,6 +2193,13 @@
     <mergeCell ref="B36:C41"/>
     <mergeCell ref="B18:B26"/>
     <mergeCell ref="B31:C35"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
